--- a/US/data/EIA/PETR/old/Table_6.1_Coal_Overview.xlsx
+++ b/US/data/EIA/PETR/old/Table_6.1_Coal_Overview.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>December 2021 Monthly Energy Review</t>
+    <t>February 2022 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: December 22, 2021</t>
+    <t>Release Date: February 24, 2022</t>
   </si>
   <si>
-    <t>Next Update: January 27, 2022</t>
+    <t>Next Update: March 29, 2022</t>
   </si>
   <si>
     <t>Table 6.1 Coal Overview</t>
@@ -473,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I599"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -16943,7 +16943,7 @@
         <v>55666.973</v>
       </c>
       <c r="C577">
-        <v>681.479</v>
+        <v>672.192</v>
       </c>
       <c r="D577">
         <v>535.139</v>
@@ -16958,10 +16958,10 @@
         <v>6117.136</v>
       </c>
       <c r="H577">
-        <v>3771.569</v>
+        <v>3756.297</v>
       </c>
       <c r="I577">
-        <v>40765.276</v>
+        <v>40771.261</v>
       </c>
     </row>
     <row r="578" spans="1:9">
@@ -16972,7 +16972,7 @@
         <v>47425.208</v>
       </c>
       <c r="C578">
-        <v>664.593</v>
+        <v>653.581</v>
       </c>
       <c r="D578">
         <v>343.12</v>
@@ -16987,10 +16987,10 @@
         <v>5245.511</v>
       </c>
       <c r="H578">
-        <v>560.478</v>
+        <v>553.969</v>
       </c>
       <c r="I578">
-        <v>36016.206</v>
+        <v>36011.703</v>
       </c>
     </row>
     <row r="579" spans="1:9">
@@ -17001,7 +17001,7 @@
         <v>46106.032</v>
       </c>
       <c r="C579">
-        <v>526.69</v>
+        <v>536.134</v>
       </c>
       <c r="D579">
         <v>460.802</v>
@@ -17016,10 +17016,10 @@
         <v>4795.354</v>
       </c>
       <c r="H579">
-        <v>2382.245</v>
+        <v>2394.449</v>
       </c>
       <c r="I579">
-        <v>32845.587</v>
+        <v>32842.827</v>
       </c>
     </row>
     <row r="580" spans="1:9">
@@ -17030,7 +17030,7 @@
         <v>39346.704</v>
       </c>
       <c r="C580">
-        <v>515.017</v>
+        <v>530.83</v>
       </c>
       <c r="D580">
         <v>364.603</v>
@@ -17045,10 +17045,10 @@
         <v>6820.84</v>
       </c>
       <c r="H580">
-        <v>1102.859</v>
+        <v>1116.28</v>
       </c>
       <c r="I580">
-        <v>26751.741</v>
+        <v>26754.133</v>
       </c>
     </row>
     <row r="581" spans="1:9">
@@ -17059,7 +17059,7 @@
         <v>37262.845</v>
       </c>
       <c r="C581">
-        <v>498.943</v>
+        <v>430.826</v>
       </c>
       <c r="D581">
         <v>535.237</v>
@@ -17074,10 +17074,10 @@
         <v>2635.041</v>
       </c>
       <c r="H581">
-        <v>1163.299</v>
+        <v>1096.162</v>
       </c>
       <c r="I581">
-        <v>29784.482</v>
+        <v>29783.502</v>
       </c>
     </row>
     <row r="582" spans="1:9">
@@ -17088,7 +17088,7 @@
         <v>39608.335</v>
       </c>
       <c r="C582">
-        <v>580.138</v>
+        <v>430.238</v>
       </c>
       <c r="D582">
         <v>227.002</v>
@@ -17103,10 +17103,10 @@
         <v>-5659.248</v>
       </c>
       <c r="H582">
-        <v>1691.362</v>
+        <v>1544.152</v>
       </c>
       <c r="I582">
-        <v>39800.594</v>
+        <v>39797.904</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -17117,7 +17117,7 @@
         <v>43217.2</v>
       </c>
       <c r="C583">
-        <v>706.491</v>
+        <v>580.081</v>
       </c>
       <c r="D583">
         <v>530.45</v>
@@ -17132,10 +17132,10 @@
         <v>-14395.569</v>
       </c>
       <c r="H583">
-        <v>651.002</v>
+        <v>526.507</v>
       </c>
       <c r="I583">
-        <v>52854.271</v>
+        <v>52852.356</v>
       </c>
     </row>
     <row r="584" spans="1:9">
@@ -17146,7 +17146,7 @@
         <v>47522.893</v>
       </c>
       <c r="C584">
-        <v>763.873</v>
+        <v>640.679</v>
       </c>
       <c r="D584">
         <v>313.821</v>
@@ -17161,10 +17161,10 @@
         <v>-9149.018</v>
       </c>
       <c r="H584">
-        <v>-406.361</v>
+        <v>-528.906</v>
       </c>
       <c r="I584">
-        <v>53610.988</v>
+        <v>53610.339</v>
       </c>
     </row>
     <row r="585" spans="1:9">
@@ -17175,7 +17175,7 @@
         <v>45141.308</v>
       </c>
       <c r="C585">
-        <v>701.497</v>
+        <v>604.401</v>
       </c>
       <c r="D585">
         <v>500.924</v>
@@ -17190,10 +17190,10 @@
         <v>-1918.079</v>
       </c>
       <c r="H585">
-        <v>1064.862</v>
+        <v>966.48</v>
       </c>
       <c r="I585">
-        <v>41826.435</v>
+        <v>41827.721</v>
       </c>
     </row>
     <row r="586" spans="1:9">
@@ -17204,7 +17204,7 @@
         <v>44988.279</v>
       </c>
       <c r="C586">
-        <v>679.309</v>
+        <v>582.795</v>
       </c>
       <c r="D586">
         <v>264.018</v>
@@ -17219,10 +17219,10 @@
         <v>3740.019</v>
       </c>
       <c r="H586">
-        <v>-125.455</v>
+        <v>-218.564</v>
       </c>
       <c r="I586">
-        <v>37395.941</v>
+        <v>37392.536</v>
       </c>
     </row>
     <row r="587" spans="1:9">
@@ -17233,7 +17233,7 @@
         <v>44344.921</v>
       </c>
       <c r="C587">
-        <v>645.026</v>
+        <v>525.907</v>
       </c>
       <c r="D587">
         <v>639.453</v>
@@ -17248,10 +17248,10 @@
         <v>1763.177</v>
       </c>
       <c r="H587">
-        <v>-1039.687</v>
+        <v>-1160.823</v>
       </c>
       <c r="I587">
-        <v>37871.8</v>
+        <v>37873.817</v>
       </c>
     </row>
     <row r="588" spans="1:9">
@@ -17262,7 +17262,7 @@
         <v>44803.656</v>
       </c>
       <c r="C588">
-        <v>800.01</v>
+        <v>691.942</v>
       </c>
       <c r="D588">
         <v>422.801</v>
@@ -17277,10 +17277,10 @@
         <v>-3611.025</v>
       </c>
       <c r="H588">
-        <v>-4630.306</v>
+        <v>-4738.484</v>
       </c>
       <c r="I588">
-        <v>47174.893</v>
+        <v>47175.003</v>
       </c>
     </row>
     <row r="589" spans="1:9">
@@ -17291,7 +17291,7 @@
         <v>48556.349</v>
       </c>
       <c r="C589">
-        <v>741.954</v>
+        <v>770.677</v>
       </c>
       <c r="D589">
         <v>525.897</v>
@@ -17306,10 +17306,10 @@
         <v>-3761.673</v>
       </c>
       <c r="H589">
-        <v>-1260.731</v>
+        <v>-1232.139</v>
       </c>
       <c r="I589">
-        <v>49116.832</v>
+        <v>49116.963</v>
       </c>
     </row>
     <row r="590" spans="1:9">
@@ -17320,7 +17320,7 @@
         <v>40868.284</v>
       </c>
       <c r="C590">
-        <v>756.174</v>
+        <v>739.733</v>
       </c>
       <c r="D590">
         <v>308.687</v>
@@ -17335,10 +17335,10 @@
         <v>-15655.685</v>
       </c>
       <c r="H590">
-        <v>-1472.466</v>
+        <v>-1487.867</v>
       </c>
       <c r="I590">
-        <v>51665.877</v>
+        <v>51664.837</v>
       </c>
     </row>
     <row r="591" spans="1:9">
@@ -17349,7 +17349,7 @@
         <v>50881.473</v>
       </c>
       <c r="C591">
-        <v>690.155</v>
+        <v>678.599</v>
       </c>
       <c r="D591">
         <v>240.521</v>
@@ -17364,10 +17364,10 @@
         <v>1632.876</v>
       </c>
       <c r="H591">
-        <v>4230.417</v>
+        <v>4219.23</v>
       </c>
       <c r="I591">
-        <v>38368.126</v>
+        <v>38367.757</v>
       </c>
     </row>
     <row r="592" spans="1:9">
@@ -17378,7 +17378,7 @@
         <v>45317.715</v>
       </c>
       <c r="C592">
-        <v>467.924</v>
+        <v>448.995</v>
       </c>
       <c r="D592">
         <v>509.268</v>
@@ -17393,10 +17393,10 @@
         <v>6400.008</v>
       </c>
       <c r="H592">
-        <v>-609.117</v>
+        <v>-627.595</v>
       </c>
       <c r="I592">
-        <v>33693.03</v>
+        <v>33692.579</v>
       </c>
     </row>
     <row r="593" spans="1:9">
@@ -17407,7 +17407,7 @@
         <v>48632.001</v>
       </c>
       <c r="C593">
-        <v>566.053</v>
+        <v>560.142</v>
       </c>
       <c r="D593">
         <v>512.178</v>
@@ -17422,10 +17422,10 @@
         <v>2897.096</v>
       </c>
       <c r="H593">
-        <v>69.545</v>
+        <v>63.582</v>
       </c>
       <c r="I593">
-        <v>39256.865</v>
+        <v>39256.917</v>
       </c>
     </row>
     <row r="594" spans="1:9">
@@ -17436,7 +17436,7 @@
         <v>48797.648</v>
       </c>
       <c r="C594">
-        <v>653.94</v>
+        <v>642.54</v>
       </c>
       <c r="D594">
         <v>508.918</v>
@@ -17451,10 +17451,10 @@
         <v>-11616.755</v>
       </c>
       <c r="H594">
-        <v>2114.136</v>
+        <v>2103.615</v>
       </c>
       <c r="I594">
-        <v>51627.406</v>
+        <v>51626.527</v>
       </c>
     </row>
     <row r="595" spans="1:9">
@@ -17465,7 +17465,7 @@
         <v>48475.408</v>
       </c>
       <c r="C595">
-        <v>666.989</v>
+        <v>782.365</v>
       </c>
       <c r="D595">
         <v>564.067</v>
@@ -17477,13 +17477,13 @@
         <v>-5946.8</v>
       </c>
       <c r="G595">
-        <v>-14324.743</v>
+        <v>-15388.123</v>
       </c>
       <c r="H595">
-        <v>-2534.11</v>
+        <v>-1345.477</v>
       </c>
       <c r="I595">
-        <v>60054.45</v>
+        <v>60044.573</v>
       </c>
     </row>
     <row r="596" spans="1:9">
@@ -17494,7 +17494,7 @@
         <v>50041.584</v>
       </c>
       <c r="C596">
-        <v>666.989</v>
+        <v>711.889</v>
       </c>
       <c r="D596">
         <v>368.13</v>
@@ -17506,13 +17506,13 @@
         <v>-7324.2</v>
       </c>
       <c r="G596">
-        <v>-12867.758</v>
+        <v>-12894.438</v>
       </c>
       <c r="H596">
-        <v>-3414.163</v>
+        <v>-3564.317</v>
       </c>
       <c r="I596">
-        <v>59666.294</v>
+        <v>59888.028</v>
       </c>
     </row>
     <row r="597" spans="1:9">
@@ -17523,7 +17523,7 @@
         <v>49762.177</v>
       </c>
       <c r="C597">
-        <v>666.989</v>
+        <v>624.35</v>
       </c>
       <c r="D597">
         <v>201.726</v>
@@ -17535,13 +17535,13 @@
         <v>-6313.278</v>
       </c>
       <c r="G597">
-        <v>-4727.59</v>
+        <v>-4767.404</v>
       </c>
       <c r="H597">
-        <v>789.599</v>
+        <v>911.07</v>
       </c>
       <c r="I597">
-        <v>48053.879</v>
+        <v>47929.583</v>
       </c>
     </row>
     <row r="598" spans="1:9">
@@ -17551,8 +17551,8 @@
       <c r="B598">
         <v>49347.633</v>
       </c>
-      <c r="C598" t="s">
-        <v>15</v>
+      <c r="C598">
+        <v>666.989</v>
       </c>
       <c r="D598">
         <v>525.5</v>
@@ -17563,14 +17563,14 @@
       <c r="F598">
         <v>-6733.597</v>
       </c>
-      <c r="G598" t="s">
-        <v>15</v>
-      </c>
-      <c r="H598" t="s">
-        <v>15</v>
-      </c>
-      <c r="I598" t="s">
-        <v>15</v>
+      <c r="G598">
+        <v>6460.342</v>
+      </c>
+      <c r="H598">
+        <v>-2560.043</v>
+      </c>
+      <c r="I598">
+        <v>39380.727</v>
       </c>
     </row>
     <row r="599" spans="1:9">
@@ -17580,25 +17580,83 @@
       <c r="B599">
         <v>49065.768</v>
       </c>
-      <c r="C599" t="s">
-        <v>15</v>
-      </c>
-      <c r="D599" t="s">
-        <v>15</v>
-      </c>
-      <c r="E599" t="s">
-        <v>15</v>
-      </c>
-      <c r="F599" t="s">
-        <v>15</v>
-      </c>
-      <c r="G599" t="s">
-        <v>15</v>
-      </c>
-      <c r="H599" t="s">
-        <v>15</v>
-      </c>
-      <c r="I599" t="s">
+      <c r="C599">
+        <v>666.989</v>
+      </c>
+      <c r="D599">
+        <v>435.716</v>
+      </c>
+      <c r="E599">
+        <v>6994.391</v>
+      </c>
+      <c r="F599">
+        <v>-6558.675</v>
+      </c>
+      <c r="G599">
+        <v>7337.662</v>
+      </c>
+      <c r="H599">
+        <v>-934.229</v>
+      </c>
+      <c r="I599">
+        <v>36770.649</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" s="6">
+        <v>44531</v>
+      </c>
+      <c r="B600">
+        <v>48670.406</v>
+      </c>
+      <c r="C600" t="s">
+        <v>15</v>
+      </c>
+      <c r="D600">
+        <v>689.079</v>
+      </c>
+      <c r="E600">
+        <v>7397.248</v>
+      </c>
+      <c r="F600">
+        <v>-6708.169</v>
+      </c>
+      <c r="G600" t="s">
+        <v>15</v>
+      </c>
+      <c r="H600" t="s">
+        <v>15</v>
+      </c>
+      <c r="I600" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" s="6">
+        <v>44562</v>
+      </c>
+      <c r="B601">
+        <v>49630.927</v>
+      </c>
+      <c r="C601" t="s">
+        <v>15</v>
+      </c>
+      <c r="D601" t="s">
+        <v>15</v>
+      </c>
+      <c r="E601" t="s">
+        <v>15</v>
+      </c>
+      <c r="F601" t="s">
+        <v>15</v>
+      </c>
+      <c r="G601" t="s">
+        <v>15</v>
+      </c>
+      <c r="H601" t="s">
+        <v>15</v>
+      </c>
+      <c r="I601" t="s">
         <v>15</v>
       </c>
     </row>
@@ -19799,7 +19857,7 @@
         <v>535434.354</v>
       </c>
       <c r="C84">
-        <v>7763.066</v>
+        <v>6879.606</v>
       </c>
       <c r="D84">
         <v>5137.37</v>
@@ -19814,10 +19872,10 @@
         <v>-3615.861</v>
       </c>
       <c r="H84">
-        <v>6185.867</v>
+        <v>5307.519</v>
       </c>
       <c r="I84">
-        <v>476698.214</v>
+        <v>476693.102</v>
       </c>
     </row>
   </sheetData>
